--- a/excelhere/room_three.xlsx
+++ b/excelhere/room_three.xlsx
@@ -442,21 +442,9 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
+      <c r="A1" t="inlineStr"/>
+      <c r="B1" t="inlineStr"/>
+      <c r="C1" t="inlineStr"/>
       <c r="D1" t="inlineStr">
         <is>
           <t>3</t>

--- a/excelhere/room_three.xlsx
+++ b/excelhere/room_three.xlsx
@@ -442,9 +442,21 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr"/>
-      <c r="B1" t="inlineStr"/>
-      <c r="C1" t="inlineStr"/>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>we</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>rwe</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>wer</t>
+        </is>
+      </c>
       <c r="D1" t="inlineStr">
         <is>
           <t>3</t>
@@ -462,14 +474,57 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>접시140</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>개</t>
+        </is>
+      </c>
+      <c r="C1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>부의금가방</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>줄</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/excelhere/room_three.xlsx
+++ b/excelhere/room_three.xlsx
@@ -442,21 +442,9 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>we</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>rwe</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>wer</t>
-        </is>
-      </c>
+      <c r="A1" t="inlineStr"/>
+      <c r="B1" t="inlineStr"/>
+      <c r="C1" t="inlineStr"/>
       <c r="D1" t="inlineStr">
         <is>
           <t>3</t>
@@ -474,7 +462,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,7 +473,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>접시140</t>
+          <t>박스테잎</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -494,34 +482,55 @@
         </is>
       </c>
       <c r="C1" t="n">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="D1" t="n">
         <v>1</v>
       </c>
       <c r="E1" t="n">
-        <v>1000</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>부의금가방</t>
+          <t>접시100</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>줄</t>
+          <t>개</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>5000</v>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>육개장(컵)</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>개</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1050</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1050</v>
       </c>
     </row>
   </sheetData>

--- a/excelhere/room_three.xlsx
+++ b/excelhere/room_three.xlsx
@@ -442,9 +442,21 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr"/>
-      <c r="B1" t="inlineStr"/>
-      <c r="C1" t="inlineStr"/>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>dfg</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>cgh</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>vg</t>
+        </is>
+      </c>
       <c r="D1" t="inlineStr">
         <is>
           <t>3</t>
@@ -473,7 +485,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>박스테잎</t>
+          <t>수세미</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -482,19 +494,19 @@
         </is>
       </c>
       <c r="C1" t="n">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="D1" t="n">
         <v>1</v>
       </c>
       <c r="E1" t="n">
-        <v>1600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>접시100</t>
+          <t>부의봉투</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -503,19 +515,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>육개장(컵)</t>
+          <t>에어베게</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -524,13 +536,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1050</v>
+        <v>2600</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>1050</v>
+        <v>2600</v>
       </c>
     </row>
   </sheetData>

--- a/excelhere/room_three.xlsx
+++ b/excelhere/room_three.xlsx
@@ -444,17 +444,17 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>dfg</t>
+          <t>1249</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>cgh</t>
+          <t>가나</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>vg</t>
+          <t>다라</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -474,7 +474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,7 +485,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>수세미</t>
+          <t>육개장(컵)</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -494,19 +494,19 @@
         </is>
       </c>
       <c r="C1" t="n">
-        <v>1000</v>
+        <v>1050</v>
       </c>
       <c r="D1" t="n">
         <v>1</v>
       </c>
       <c r="E1" t="n">
-        <v>1000</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>부의봉투</t>
+          <t>사이다</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -515,34 +515,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>에어베게</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>개</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2600</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="n">
-        <v>2600</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/excelhere/room_three.xlsx
+++ b/excelhere/room_three.xlsx
@@ -444,19 +444,15 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>1249</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>가나</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>다라</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr"/>
       <c r="D1" t="inlineStr">
         <is>
           <t>3</t>
@@ -474,7 +470,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,7 +481,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>육개장(컵)</t>
+          <t>노트</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -494,19 +490,19 @@
         </is>
       </c>
       <c r="C1" t="n">
-        <v>1050</v>
+        <v>600</v>
       </c>
       <c r="D1" t="n">
         <v>1</v>
       </c>
       <c r="E1" t="n">
-        <v>1050</v>
+        <v>600</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>사이다</t>
+          <t>식탁보</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -515,13 +511,34 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1000</v>
+        <v>6000</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>1000</v>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>부의금가방</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>줄</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5000</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>5000</v>
       </c>
     </row>
   </sheetData>

--- a/excelhere/room_three.xlsx
+++ b/excelhere/room_three.xlsx
@@ -444,15 +444,19 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr"/>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
       <c r="D1" t="inlineStr">
         <is>
           <t>3</t>
@@ -470,7 +474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,7 +485,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>노트</t>
+          <t>수저</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -490,55 +494,97 @@
         </is>
       </c>
       <c r="C1" t="n">
-        <v>600</v>
+        <v>780</v>
       </c>
       <c r="D1" t="n">
         <v>1</v>
       </c>
       <c r="E1" t="n">
-        <v>600</v>
+        <v>780</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>식탁보</t>
+          <t>종이컵</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>개</t>
+          <t>줄</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6000</v>
+        <v>1500</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>6000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>부의금가방</t>
+          <t>접시140</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>줄</t>
+          <t>개</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>5000</v>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>신라면(컵)</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>개</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>930</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>접시140</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>개</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/excelhere/room_three.xlsx
+++ b/excelhere/room_three.xlsx
@@ -444,17 +444,17 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>1232</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>232</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>323</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -474,7 +474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,7 +485,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>수저</t>
+          <t>녹말요지</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="C1" t="n">
-        <v>780</v>
+        <v>1100</v>
       </c>
       <c r="D1" t="n">
         <v>1</v>
       </c>
       <c r="E1" t="n">
-        <v>780</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="2">
@@ -527,7 +527,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>접시140</t>
+          <t>육개장(컵)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1000</v>
+        <v>1050</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>1000</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>신라면(컵)</t>
+          <t>에어베게</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -557,34 +557,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>930</v>
+        <v>2600</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>접시140</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>개</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1000</v>
+        <v>2600</v>
       </c>
     </row>
   </sheetData>

--- a/excelhere/room_three.xlsx
+++ b/excelhere/room_three.xlsx
@@ -474,7 +474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,84 +485,42 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>녹말요지</t>
+          <t>부의금가방</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>개</t>
+          <t>줄</t>
         </is>
       </c>
       <c r="C1" t="n">
-        <v>1100</v>
+        <v>5000</v>
       </c>
       <c r="D1" t="n">
         <v>1</v>
       </c>
       <c r="E1" t="n">
-        <v>1100</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>종이컵</t>
+          <t>에어베게</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>줄</t>
+          <t>개</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1500</v>
+        <v>2600</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>육개장(컵)</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>개</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1050</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>에어베게</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>개</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2600</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
         <v>2600</v>
       </c>
     </row>

--- a/excelhere/room_three.xlsx
+++ b/excelhere/room_three.xlsx
@@ -474,7 +474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,28 +485,28 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>부의금가방</t>
+          <t>접시140</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>줄</t>
+          <t>개</t>
         </is>
       </c>
       <c r="C1" t="n">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="D1" t="n">
         <v>1</v>
       </c>
       <c r="E1" t="n">
-        <v>5000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>에어베게</t>
+          <t>접시140</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -515,13 +515,244 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2600</v>
+        <v>1000</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>2600</v>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>접시140</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>개</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>접시140</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>개</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>접시140</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>개</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>접시140</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>개</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>접시140</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>개</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>접시140</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>개</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>접시140</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>개</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>접시140</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>개</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>신라면(컵)</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>개</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>930</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>접시140</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>개</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>식탁보</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>개</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>6000</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>6000</v>
       </c>
     </row>
   </sheetData>

--- a/excelhere/room_three.xlsx
+++ b/excelhere/room_three.xlsx
@@ -444,17 +444,17 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>1232</t>
+          <t>0003</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>예빛나</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>황보아롱</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -474,7 +474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,7 +485,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>접시140</t>
+          <t>신라면(컵)</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="C1" t="n">
-        <v>1000</v>
+        <v>930</v>
       </c>
       <c r="D1" t="n">
         <v>1</v>
       </c>
       <c r="E1" t="n">
-        <v>1000</v>
+        <v>930</v>
       </c>
     </row>
     <row r="2">
@@ -527,7 +527,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>접시140</t>
+          <t>식탁보</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -536,222 +536,12 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1000</v>
+        <v>6000</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>접시140</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>개</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>접시140</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>개</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>접시140</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>개</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>접시140</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>개</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>접시140</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>개</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>접시140</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>개</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>접시140</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>개</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>신라면(컵)</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>개</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>930</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" t="n">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>접시140</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>개</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>식탁보</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>개</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>6000</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" t="n">
         <v>6000</v>
       </c>
     </row>

--- a/excelhere/room_three.xlsx
+++ b/excelhere/room_three.xlsx
@@ -449,12 +449,12 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>예빛나</t>
+          <t>Daniel</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>황보아롱</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -485,7 +485,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>신라면(컵)</t>
+          <t>백김치</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -494,19 +494,19 @@
         </is>
       </c>
       <c r="C1" t="n">
-        <v>930</v>
+        <v>8000</v>
       </c>
       <c r="D1" t="n">
         <v>1</v>
       </c>
       <c r="E1" t="n">
-        <v>930</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>접시140</t>
+          <t>대패삼겹살</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -515,19 +515,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>식탁보</t>
+          <t>김치</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -536,13 +536,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
     </row>
   </sheetData>
